--- a/biology/Botanique/Marrube_commun/Marrube_commun.xlsx
+++ b/biology/Botanique/Marrube_commun/Marrube_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marrubium vulgare
 Le marrube blanc, marrube commun (Marrubium vulgare), ou simplement marrube ou marube, est une plante herbacée du genre Marrubium, de la famille des Lamiaceae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d’Europe, d’Afrique du Nord et d’Asie.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bords de chemins, prés secs et terrains vagues.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son odeur de thym la distingue d'autres plantes.
 C’est une plante pérenne de couleur grisonnante ressemblant légèrement à la menthe, et qui peut atteindre 25 à 45 cm de hauteur. Ses feuilles duveteuses ont une longueur de 2 à 5 cm et un aspect froissé.
@@ -607,12 +625,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le marrube blanc fut traditionnellement employé dans la fabrication des remèdes contre la toux[1]. Antonius Castor le connaissait et Pline l'Ancien  indique de nombreuses préparations curatives utilisant le marrube[2]. Ses sommités pouvaient être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [3].
-En médecine populaire, le marrube est une plante qui a été très appréciée au Moyen Âge et même encore assez récemment. Il possède beaucoup de vertus. C'est d'abord un tonique-amer, digestif (ballonnements, gaz intestinaux). Ensuite, il fluidifie et permet l'expectoration des sécrétions bronchiques. Il a également des propriétés antidiabétiques. Enfin, il peut faire baisser la fièvre et combattre les troubles bénins du rythme cardiaque. C'est une plante très efficace, mais très amère[4].
-Principes actifs
-On compte parmi ses constituants actifs des lactones diterpéniques, notamment la marrubine formée lors de l'extraction à partir de la prémarrubine, de la choline, des saponosides, des tanins, des acide-phénols (acide caféique, acide chlorogénique), et des matières minérales (sels de potassium et de fer).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marrube blanc fut traditionnellement employé dans la fabrication des remèdes contre la toux. Antonius Castor le connaissait et Pline l'Ancien  indique de nombreuses préparations curatives utilisant le marrube. Ses sommités pouvaient être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
+En médecine populaire, le marrube est une plante qui a été très appréciée au Moyen Âge et même encore assez récemment. Il possède beaucoup de vertus. C'est d'abord un tonique-amer, digestif (ballonnements, gaz intestinaux). Ensuite, il fluidifie et permet l'expectoration des sécrétions bronchiques. Il a également des propriétés antidiabétiques. Enfin, il peut faire baisser la fièvre et combattre les troubles bénins du rythme cardiaque. C'est une plante très efficace, mais très amère.
 </t>
         </is>
       </c>
@@ -638,10 +656,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principes actifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On compte parmi ses constituants actifs des lactones diterpéniques, notamment la marrubine formée lors de l'extraction à partir de la prémarrubine, de la choline, des saponosides, des tanins, des acide-phénols (acide caféique, acide chlorogénique), et des matières minérales (sels de potassium et de fer).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marrube_commun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marrube_commun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été donné au premier album du groupe rock "The Dead Weather".
 </t>
